--- a/data/excel/२०२५/०२/२४.xlsx
+++ b/data/excel/२०२५/०२/२४.xlsx
@@ -34,6 +34,15 @@
     <t>Avg Price</t>
   </si>
   <si>
+    <t>४०.००</t>
+  </si>
+  <si>
+    <t>४५.००</t>
+  </si>
+  <si>
+    <t>२०२५-०२-२४</t>
+  </si>
+  <si>
     <t>गोलभेडा ठूलो(नेपाली)</t>
   </si>
   <si>
@@ -43,36 +52,27 @@
     <t>५०.००</t>
   </si>
   <si>
-    <t>४०.००</t>
-  </si>
-  <si>
-    <t>४५.००</t>
-  </si>
-  <si>
-    <t>२०२५-०२-२४</t>
-  </si>
-  <si>
     <t>गोलभेडा ठूलो(भारतीय)</t>
   </si>
   <si>
     <t>केजी</t>
   </si>
   <si>
+    <t>२२.००</t>
+  </si>
+  <si>
+    <t>१४.००</t>
+  </si>
+  <si>
+    <t>१८.००</t>
+  </si>
+  <si>
+    <t>गोलभेडा सानो(तराई)</t>
+  </si>
+  <si>
     <t>के जी</t>
   </si>
   <si>
-    <t>२२.००</t>
-  </si>
-  <si>
-    <t>१४.००</t>
-  </si>
-  <si>
-    <t>१८.००</t>
-  </si>
-  <si>
-    <t>गोलभेडा सानो(तराई)</t>
-  </si>
-  <si>
     <t>आलु रातो</t>
   </si>
   <si>
@@ -85,27 +85,27 @@
     <t>३३.००</t>
   </si>
   <si>
+    <t>आलु रातो(भारतीय)</t>
+  </si>
+  <si>
     <t>३०.००</t>
   </si>
   <si>
     <t>३१.००</t>
   </si>
   <si>
-    <t>आलु रातो(भारतीय)</t>
+    <t>७०.००</t>
+  </si>
+  <si>
+    <t>७१.६७</t>
+  </si>
+  <si>
+    <t>प्याज सुकेको (भारतीय)</t>
   </si>
   <si>
     <t>७३.००</t>
   </si>
   <si>
-    <t>७०.००</t>
-  </si>
-  <si>
-    <t>७१.६७</t>
-  </si>
-  <si>
-    <t>प्याज सुकेको (भारतीय)</t>
-  </si>
-  <si>
     <t>गाजर(लोकल)</t>
   </si>
   <si>
@@ -115,10 +115,13 @@
     <t>२५.००</t>
   </si>
   <si>
+    <t>गाजर(तराई)</t>
+  </si>
+  <si>
     <t>२०.००</t>
   </si>
   <si>
-    <t>गाजर(तराई)</t>
+    <t>बन्दा(लोकल)</t>
   </si>
   <si>
     <t>१५.००</t>
@@ -130,9 +133,6 @@
     <t>१२.३३</t>
   </si>
   <si>
-    <t>बन्दा(लोकल)</t>
-  </si>
-  <si>
     <t>बन्दा(तराई)</t>
   </si>
   <si>
@@ -151,12 +151,12 @@
     <t>१७.६७</t>
   </si>
   <si>
+    <t>स्थानीय काउली(ज्यापु)</t>
+  </si>
+  <si>
     <t>२२.३३</t>
   </si>
   <si>
-    <t>स्थानीय काउली(ज्यापु)</t>
-  </si>
-  <si>
     <t>काउली तराई</t>
   </si>
   <si>
@@ -172,15 +172,15 @@
     <t>भन्टा लाम्चो</t>
   </si>
   <si>
+    <t>भन्टा डल्लो</t>
+  </si>
+  <si>
     <t>६०.००</t>
   </si>
   <si>
     <t>५५.००</t>
   </si>
   <si>
-    <t>भन्टा डल्लो</t>
-  </si>
-  <si>
     <t>मटरकोशा</t>
   </si>
   <si>
@@ -193,6 +193,9 @@
     <t>घिउ सिमी(हाइब्रीड)</t>
   </si>
   <si>
+    <t>९५.००</t>
+  </si>
+  <si>
     <t>घिउ सिमी(राजमा)</t>
   </si>
   <si>
@@ -202,15 +205,15 @@
     <t>९०.००</t>
   </si>
   <si>
-    <t>९५.००</t>
-  </si>
-  <si>
     <t>टाटे सिमी</t>
   </si>
   <si>
     <t>४७.६७</t>
   </si>
   <si>
+    <t>तितो करेला</t>
+  </si>
+  <si>
     <t>१३०.००</t>
   </si>
   <si>
@@ -220,9 +223,6 @@
     <t>१२५.००</t>
   </si>
   <si>
-    <t>तितो करेला</t>
-  </si>
-  <si>
     <t>लौका</t>
   </si>
   <si>
@@ -244,12 +244,12 @@
     <t>हरियो फर्सी(डल्लो)</t>
   </si>
   <si>
+    <t>भिण्डी</t>
+  </si>
+  <si>
     <t>११५.००</t>
   </si>
   <si>
-    <t>भिण्डी</t>
-  </si>
-  <si>
     <t>सखरखण्ड</t>
   </si>
   <si>
@@ -292,10 +292,13 @@
     <t>८०.००</t>
   </si>
   <si>
+    <t>८५.००</t>
+  </si>
+  <si>
     <t>च्याउ(कन्य)</t>
   </si>
   <si>
-    <t>८५.००</t>
+    <t>च्याउ(डल्ले)</t>
   </si>
   <si>
     <t>४००.००</t>
@@ -307,27 +310,24 @@
     <t>३७६.६७</t>
   </si>
   <si>
-    <t>च्याउ(डल्ले)</t>
-  </si>
-  <si>
     <t>ब्रोकाउली</t>
   </si>
   <si>
     <t>चुकुन्दर</t>
   </si>
   <si>
+    <t>सजिवन</t>
+  </si>
+  <si>
+    <t>२२०.००</t>
+  </si>
+  <si>
     <t>२००.००</t>
   </si>
   <si>
     <t>२१०.००</t>
   </si>
   <si>
-    <t>सजिवन</t>
-  </si>
-  <si>
-    <t>२२०.००</t>
-  </si>
-  <si>
     <t>रातो बन्दा</t>
   </si>
   <si>
@@ -337,13 +337,16 @@
     <t>ग्याठ कोबी</t>
   </si>
   <si>
+    <t>१५०.००</t>
+  </si>
+  <si>
     <t>१२६.६७</t>
   </si>
   <si>
     <t>सेलरी</t>
   </si>
   <si>
-    <t>१५०.००</t>
+    <t>पार्सले</t>
   </si>
   <si>
     <t>३००.००</t>
@@ -355,9 +358,6 @@
     <t>२७६.६७</t>
   </si>
   <si>
-    <t>पार्सले</t>
-  </si>
-  <si>
     <t>सौफको साग</t>
   </si>
   <si>
@@ -367,28 +367,31 @@
     <t>गान्टे मूला</t>
   </si>
   <si>
+    <t>१६०.००</t>
+  </si>
+  <si>
+    <t>१५५.००</t>
+  </si>
+  <si>
     <t>इमली</t>
   </si>
   <si>
-    <t>१६०.००</t>
-  </si>
-  <si>
-    <t>१५५.००</t>
-  </si>
-  <si>
     <t>तामा</t>
   </si>
   <si>
     <t>तोफु</t>
   </si>
   <si>
+    <t>२८०.००</t>
+  </si>
+  <si>
     <t>२९०.००</t>
   </si>
   <si>
     <t>गुन्दुक</t>
   </si>
   <si>
-    <t>२८०.००</t>
+    <t>स्याउ(झोले)</t>
   </si>
   <si>
     <t>१८०.००</t>
@@ -397,9 +400,6 @@
     <t>१९०.००</t>
   </si>
   <si>
-    <t>स्याउ(झोले)</t>
-  </si>
-  <si>
     <t>स्याउ(फूजी)</t>
   </si>
   <si>
@@ -424,33 +424,33 @@
     <t>१७०.००</t>
   </si>
   <si>
+    <t>अनार</t>
+  </si>
+  <si>
+    <t>३८०.००</t>
+  </si>
+  <si>
+    <t>३३०.००</t>
+  </si>
+  <si>
     <t>३५३.३३</t>
   </si>
   <si>
-    <t>अनार</t>
-  </si>
-  <si>
-    <t>३८०.००</t>
-  </si>
-  <si>
-    <t>३३०.००</t>
+    <t>१५३.३३</t>
   </si>
   <si>
     <t>अंगुर(हरियो)</t>
   </si>
   <si>
-    <t>१५३.३३</t>
+    <t>२४०.००</t>
+  </si>
+  <si>
+    <t>अंगुर(कालो)</t>
   </si>
   <si>
     <t>२३०.००</t>
   </si>
   <si>
-    <t>२४०.००</t>
-  </si>
-  <si>
-    <t>अंगुर(कालो)</t>
-  </si>
-  <si>
     <t>१६५.००</t>
   </si>
   <si>
@@ -487,12 +487,12 @@
     <t>रुख कटहर</t>
   </si>
   <si>
+    <t>२२६.६७</t>
+  </si>
+  <si>
     <t>नासपाती(चाइनिज)</t>
   </si>
   <si>
-    <t>२२६.६७</t>
-  </si>
-  <si>
     <t>मेवा(नेपाली)</t>
   </si>
   <si>
@@ -511,6 +511,9 @@
     <t>स्ट्रबेरी भुईऐसेलु</t>
   </si>
   <si>
+    <t>४५०.००</t>
+  </si>
+  <si>
     <t>४६३.३३</t>
   </si>
   <si>
@@ -520,9 +523,6 @@
     <t>४८०.००</t>
   </si>
   <si>
-    <t>४५०.००</t>
-  </si>
-  <si>
     <t>अदुवा</t>
   </si>
   <si>
@@ -583,16 +583,16 @@
     <t>राजा च्याउ</t>
   </si>
   <si>
+    <t>१०००.००</t>
+  </si>
+  <si>
+    <t>८००.००</t>
+  </si>
+  <si>
+    <t>९००.००</t>
+  </si>
+  <si>
     <t>सिताके च्याउ</t>
-  </si>
-  <si>
-    <t>१०००.००</t>
-  </si>
-  <si>
-    <t>८००.००</t>
-  </si>
-  <si>
-    <t>९००.००</t>
   </si>
 </sst>
 </file>
@@ -924,27 +924,27 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -953,44 +953,44 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -1004,53 +1004,53 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
         <v>31</v>
@@ -1059,24 +1059,24 @@
         <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
         <v>32</v>
@@ -1084,27 +1084,27 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
         <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
@@ -1119,12 +1119,12 @@
         <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
@@ -1139,24 +1139,24 @@
         <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
         <v>44</v>
@@ -1164,10 +1164,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
@@ -1176,27 +1176,27 @@
         <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
         <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
         <v>44</v>
@@ -1204,39 +1204,39 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
         <v>48</v>
       </c>
       <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
         <v>7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
       </c>
       <c r="E16" t="s">
         <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
         <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
         <v>44</v>
@@ -1244,7 +1244,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
         <v>50</v>
@@ -1253,10 +1253,10 @@
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
         <v>32</v>
@@ -1264,79 +1264,79 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
         <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
         <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" t="s">
         <v>11</v>
       </c>
-      <c r="B20" t="s">
+      <c r="F20" t="s">
         <v>54</v>
-      </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
         <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F22" t="s">
         <v>56</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
         <v>58</v>
@@ -1353,10 +1353,10 @@
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F23" t="s">
         <v>56</v>
@@ -1364,39 +1364,39 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
         <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
         <v>63</v>
       </c>
       <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
         <v>7</v>
-      </c>
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" t="s">
-        <v>10</v>
       </c>
       <c r="F25" t="s">
         <v>64</v>
@@ -1404,59 +1404,59 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" t="s">
         <v>68</v>
-      </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
         <v>69</v>
       </c>
       <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" t="s">
         <v>7</v>
-      </c>
-      <c r="D27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
         <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
         <v>71</v>
       </c>
       <c r="E28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F28" t="s">
         <v>72</v>
@@ -1464,47 +1464,47 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
         <v>73</v>
       </c>
       <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" t="s">
         <v>7</v>
-      </c>
-      <c r="D29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
         <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
         <v>75</v>
@@ -1513,50 +1513,50 @@
         <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E32" t="s">
         <v>71</v>
       </c>
       <c r="F32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
         <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F33" t="s">
         <v>56</v>
@@ -1564,179 +1564,179 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
         <v>79</v>
       </c>
       <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
         <v>7</v>
-      </c>
-      <c r="D34" t="s">
-        <v>10</v>
       </c>
       <c r="E34" t="s">
         <v>31</v>
       </c>
       <c r="F34" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
         <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E35" t="s">
         <v>71</v>
       </c>
       <c r="F35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
         <v>81</v>
       </c>
       <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
         <v>7</v>
-      </c>
-      <c r="D36" t="s">
-        <v>10</v>
       </c>
       <c r="E36" t="s">
         <v>31</v>
       </c>
       <c r="F36" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
         <v>82</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
         <v>32</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
         <v>83</v>
       </c>
       <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" t="s">
         <v>7</v>
-      </c>
-      <c r="D38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
         <v>84</v>
       </c>
       <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" t="s">
         <v>7</v>
-      </c>
-      <c r="D39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
         <v>85</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
         <v>32</v>
       </c>
       <c r="E40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
         <v>86</v>
       </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
         <v>87</v>
       </c>
       <c r="C42" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E42" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F42" t="s">
         <v>31</v>
@@ -1744,19 +1744,19 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
         <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F43" t="s">
         <v>56</v>
@@ -1764,19 +1764,19 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
         <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
         <v>91</v>
       </c>
       <c r="E44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F44" t="s">
         <v>89</v>
@@ -1784,59 +1784,59 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" t="s">
         <v>92</v>
-      </c>
-      <c r="C45" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" t="s">
-        <v>60</v>
-      </c>
-      <c r="E45" t="s">
-        <v>27</v>
-      </c>
-      <c r="F45" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" t="s">
+        <v>95</v>
+      </c>
+      <c r="E46" t="s">
+        <v>96</v>
+      </c>
+      <c r="F46" t="s">
         <v>97</v>
-      </c>
-      <c r="C46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" t="s">
-        <v>94</v>
-      </c>
-      <c r="E46" t="s">
-        <v>95</v>
-      </c>
-      <c r="F46" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
         <v>98</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F47" t="s">
         <v>31</v>
@@ -1844,19 +1844,19 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
         <v>99</v>
       </c>
       <c r="C48" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F48" t="s">
         <v>56</v>
@@ -1864,39 +1864,39 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
+        <v>101</v>
+      </c>
+      <c r="E49" t="s">
         <v>102</v>
       </c>
-      <c r="C49" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="F49" t="s">
         <v>103</v>
-      </c>
-      <c r="E49" t="s">
-        <v>100</v>
-      </c>
-      <c r="F49" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B50" t="s">
         <v>104</v>
       </c>
       <c r="C50" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F50" t="s">
         <v>56</v>
@@ -1904,39 +1904,39 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B51" t="s">
         <v>105</v>
       </c>
       <c r="C51" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E51" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B52" t="s">
         <v>106</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E52" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F52" t="s">
         <v>31</v>
@@ -1944,227 +1944,227 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B53" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" t="s">
+        <v>107</v>
+      </c>
+      <c r="E53" t="s">
+        <v>61</v>
+      </c>
+      <c r="F53" t="s">
         <v>108</v>
-      </c>
-      <c r="C53" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" t="s">
-        <v>109</v>
-      </c>
-      <c r="E53" t="s">
-        <v>60</v>
-      </c>
-      <c r="F53" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" t="s">
+        <v>111</v>
+      </c>
+      <c r="E54" t="s">
+        <v>112</v>
+      </c>
+      <c r="F54" t="s">
         <v>113</v>
-      </c>
-      <c r="C54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" t="s">
-        <v>110</v>
-      </c>
-      <c r="E54" t="s">
-        <v>111</v>
-      </c>
-      <c r="F54" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B55" t="s">
         <v>114</v>
       </c>
       <c r="C55" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E55" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
         <v>115</v>
       </c>
       <c r="C56" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B57" t="s">
         <v>116</v>
       </c>
       <c r="C57" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E57" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B58" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" t="s">
         <v>117</v>
       </c>
-      <c r="C58" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
+        <v>107</v>
+      </c>
+      <c r="F58" t="s">
         <v>118</v>
-      </c>
-      <c r="E58" t="s">
-        <v>109</v>
-      </c>
-      <c r="F58" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B59" t="s">
         <v>120</v>
       </c>
       <c r="C59" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F59" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
         <v>121</v>
       </c>
       <c r="C60" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E60" t="s">
         <v>71</v>
       </c>
       <c r="F60" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B61" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" t="s">
+        <v>111</v>
+      </c>
+      <c r="E61" t="s">
+        <v>122</v>
+      </c>
+      <c r="F61" t="s">
         <v>123</v>
-      </c>
-      <c r="C61" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" t="s">
-        <v>110</v>
-      </c>
-      <c r="E61" t="s">
-        <v>124</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" t="s">
+        <v>102</v>
+      </c>
+      <c r="E62" t="s">
+        <v>126</v>
+      </c>
+      <c r="F62" t="s">
         <v>127</v>
-      </c>
-      <c r="C62" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" t="s">
-        <v>100</v>
-      </c>
-      <c r="E62" t="s">
-        <v>125</v>
-      </c>
-      <c r="F62" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B63" t="s">
         <v>128</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E63" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F63" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B64" t="s">
         <v>129</v>
@@ -2173,7 +2173,7 @@
         <v>130</v>
       </c>
       <c r="D64" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E64" t="s">
         <v>131</v>
@@ -2184,16 +2184,16 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B65" t="s">
         <v>134</v>
       </c>
       <c r="C65" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E65" t="s">
         <v>135</v>
@@ -2204,79 +2204,79 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B66" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" t="s">
         <v>137</v>
       </c>
-      <c r="C66" t="s">
-        <v>7</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>138</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>139</v>
-      </c>
-      <c r="F66" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B67" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" t="s">
+        <v>126</v>
+      </c>
+      <c r="E67" t="s">
+        <v>66</v>
+      </c>
+      <c r="F67" t="s">
         <v>140</v>
-      </c>
-      <c r="C67" t="s">
-        <v>7</v>
-      </c>
-      <c r="D67" t="s">
-        <v>125</v>
-      </c>
-      <c r="E67" t="s">
-        <v>65</v>
-      </c>
-      <c r="F67" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C68" t="s">
         <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E68" t="s">
+        <v>144</v>
+      </c>
+      <c r="F68" t="s">
         <v>142</v>
-      </c>
-      <c r="F68" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B69" t="s">
         <v>146</v>
       </c>
       <c r="C69" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
         <v>135</v>
       </c>
       <c r="E69" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F69" t="s">
         <v>145</v>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B70" t="s">
         <v>147</v>
@@ -2296,7 +2296,7 @@
         <v>71</v>
       </c>
       <c r="E70" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F70" t="s">
         <v>72</v>
@@ -2304,36 +2304,36 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B71" t="s">
         <v>148</v>
       </c>
       <c r="C71" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71" t="s">
         <v>7</v>
-      </c>
-      <c r="D71" t="s">
-        <v>8</v>
-      </c>
-      <c r="E71" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B72" t="s">
         <v>149</v>
       </c>
       <c r="C72" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E72" t="s">
         <v>131</v>
@@ -2344,19 +2344,19 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B73" t="s">
         <v>150</v>
       </c>
       <c r="C73" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
         <v>71</v>
       </c>
       <c r="E73" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F73" t="s">
         <v>72</v>
@@ -2364,7 +2364,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B74" t="s">
         <v>152</v>
@@ -2373,10 +2373,10 @@
         <v>153</v>
       </c>
       <c r="D74" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E74" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F74" t="s">
         <v>151</v>
@@ -2384,59 +2384,59 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B75" t="s">
         <v>154</v>
       </c>
       <c r="C75" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E75" t="s">
         <v>91</v>
       </c>
       <c r="F75" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B76" t="s">
         <v>155</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E76" t="s">
         <v>31</v>
       </c>
       <c r="F76" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B77" t="s">
         <v>156</v>
       </c>
       <c r="C77" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
         <v>71</v>
       </c>
       <c r="E77" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F77" t="s">
         <v>72</v>
@@ -2444,47 +2444,47 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C78" t="s">
         <v>13</v>
       </c>
       <c r="D78" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E78" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F78" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B79" t="s">
         <v>159</v>
       </c>
       <c r="C79" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E79" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B80" t="s">
         <v>160</v>
@@ -2493,50 +2493,50 @@
         <v>13</v>
       </c>
       <c r="D80" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E80" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F80" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B81" t="s">
         <v>161</v>
       </c>
       <c r="C81" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
         <v>131</v>
       </c>
       <c r="E81" t="s">
+        <v>67</v>
+      </c>
+      <c r="F81" t="s">
         <v>66</v>
-      </c>
-      <c r="F81" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B82" t="s">
         <v>162</v>
       </c>
       <c r="C82" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E82" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F82" t="s">
         <v>71</v>
@@ -2544,99 +2544,99 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B83" t="s">
         <v>163</v>
       </c>
       <c r="C83" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" t="s">
+        <v>6</v>
+      </c>
+      <c r="F83" t="s">
         <v>7</v>
-      </c>
-      <c r="D83" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" t="s">
-        <v>9</v>
-      </c>
-      <c r="F83" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B84" t="s">
         <v>164</v>
       </c>
       <c r="C84" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E84" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F84" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C85" t="s">
         <v>13</v>
       </c>
       <c r="D85" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E85" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F85" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B86" t="s">
         <v>169</v>
       </c>
       <c r="C86" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E86" t="s">
         <v>71</v>
       </c>
       <c r="F86" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B87" t="s">
         <v>170</v>
       </c>
       <c r="C87" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E87" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F87" t="s">
         <v>171</v>
@@ -2644,19 +2644,19 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B88" t="s">
         <v>172</v>
       </c>
       <c r="C88" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E88" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F88" t="s">
         <v>56</v>
@@ -2664,59 +2664,59 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B89" t="s">
         <v>173</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D89" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E89" t="s">
         <v>91</v>
       </c>
       <c r="F89" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B90" t="s">
         <v>174</v>
       </c>
       <c r="C90" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D90" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E90" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B91" t="s">
         <v>175</v>
       </c>
       <c r="C91" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E91" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F91" t="s">
         <v>56</v>
@@ -2724,19 +2724,19 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B92" t="s">
         <v>176</v>
       </c>
       <c r="C92" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E92" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F92" t="s">
         <v>56</v>
@@ -2744,113 +2744,113 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B93" t="s">
         <v>177</v>
       </c>
       <c r="C93" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" t="s">
+        <v>6</v>
+      </c>
+      <c r="F93" t="s">
         <v>7</v>
-      </c>
-      <c r="D93" t="s">
-        <v>8</v>
-      </c>
-      <c r="E93" t="s">
-        <v>9</v>
-      </c>
-      <c r="F93" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B94" t="s">
         <v>178</v>
       </c>
       <c r="C94" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E94" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F94" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B95" t="s">
         <v>179</v>
       </c>
       <c r="C95" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E95" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F95" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B96" t="s">
         <v>180</v>
       </c>
       <c r="C96" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E96" t="s">
         <v>131</v>
       </c>
       <c r="F96" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B97" t="s">
         <v>181</v>
       </c>
       <c r="C97" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E97" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B98" t="s">
         <v>182</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D98" t="s">
         <v>183</v>
@@ -2864,82 +2864,82 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B99" t="s">
         <v>186</v>
       </c>
       <c r="C99" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D99" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E99" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F99" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B100" t="s">
         <v>187</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D100" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E100" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F100" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B101" t="s">
         <v>188</v>
       </c>
       <c r="C101" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E101" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F101" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B102" t="s">
+        <v>192</v>
+      </c>
+      <c r="C102" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102" t="s">
         <v>189</v>
       </c>
-      <c r="C102" t="s">
-        <v>7</v>
-      </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>190</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
         <v>191</v>
-      </c>
-      <c r="F102" t="s">
-        <v>192</v>
       </c>
     </row>
   </sheetData>
